--- a/results/text_model_evaluation/other_models.xlsx
+++ b/results/text_model_evaluation/other_models.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27880" yWindow="-2300" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
